--- a/database/foodmenu.xlsx
+++ b/database/foodmenu.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10109"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/5FCF11BE-FE2E-4B38-A27E-4E7E831072F1/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Rei\Documents\GitHub\surugamaru\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA7F025-F7D4-DD49-A49A-608FC1E3CDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Food" sheetId="1" r:id="rId1"/>
+    <sheet name="Grilled" sheetId="7" r:id="rId2"/>
+    <sheet name="Sashimi" sheetId="2" r:id="rId3"/>
+    <sheet name="Fried" sheetId="3" r:id="rId4"/>
+    <sheet name="Salada" sheetId="4" r:id="rId5"/>
+    <sheet name="Alcohol" sheetId="6" r:id="rId6"/>
+    <sheet name="NonAlcohol" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
   <si>
     <t>牛すじガーリック焼き</t>
   </si>
@@ -162,13 +167,224 @@
   </si>
   <si>
     <t>季節のシャーベット</t>
+  </si>
+  <si>
+    <t>#画像パス</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刺身</t>
+    <rPh sb="0" eb="2">
+      <t>サシミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>揚げ物</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サラダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生ビール 一口(麒麟 一番搾り)</t>
+  </si>
+  <si>
+    <t>生ビール 小(麒麟 一番搾り)</t>
+  </si>
+  <si>
+    <t>生ビール 中(麒麟 一番搾り)</t>
+  </si>
+  <si>
+    <t>瓶ビール(麒麟 クラシックラガー)</t>
+  </si>
+  <si>
+    <t>麒麟 ハードシードル</t>
+  </si>
+  <si>
+    <t>グラス ワイン 赤</t>
+  </si>
+  <si>
+    <t>鏡月 烏龍割り 冷</t>
+  </si>
+  <si>
+    <t>鏡月 緑茶割り 冷</t>
+  </si>
+  <si>
+    <t>鏡月 烏龍割り 温</t>
+  </si>
+  <si>
+    <t>鏡月 緑茶割り 温</t>
+  </si>
+  <si>
+    <t>鏡月 炭酸割り</t>
+  </si>
+  <si>
+    <t>鏡月 お湯割り</t>
+  </si>
+  <si>
+    <t>鏡月 水割り</t>
+  </si>
+  <si>
+    <t>レモンサワー(100%)</t>
+  </si>
+  <si>
+    <t>シークワーサーサワー(100%)</t>
+  </si>
+  <si>
+    <t>グレープフルーツサワー(100%)</t>
+  </si>
+  <si>
+    <t>梅塩サワー</t>
+  </si>
+  <si>
+    <t>カルピスサワー</t>
+  </si>
+  <si>
+    <t>パインサワー</t>
+  </si>
+  <si>
+    <t>メロンサワー</t>
+  </si>
+  <si>
+    <t>茘枝おろしサワー</t>
+  </si>
+  <si>
+    <t>林檎おろしサワー</t>
+  </si>
+  <si>
+    <t>柚子蜜おろしサワー</t>
+  </si>
+  <si>
+    <t>白桃おろしサワー</t>
+  </si>
+  <si>
+    <t>葡萄おろしサワー</t>
+  </si>
+  <si>
+    <t>青じそおろしサワー</t>
+  </si>
+  <si>
+    <t>つぶつぶ蜜紺サワー</t>
+  </si>
+  <si>
+    <t>コーラ</t>
+  </si>
+  <si>
+    <t>オレンジ</t>
+  </si>
+  <si>
+    <t>ぶどう</t>
+  </si>
+  <si>
+    <t>トマト</t>
+  </si>
+  <si>
+    <t>グレープフルーツ</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+  <si>
+    <t>緑茶</t>
+  </si>
+  <si>
+    <t>天然水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT 烏龍茶 </t>
+  </si>
+  <si>
+    <t>HOT カルピス</t>
+  </si>
+  <si>
+    <t>HOT 緑茶</t>
+  </si>
+  <si>
+    <t>カルピスソーダ</t>
+  </si>
+  <si>
+    <t>カルピス W</t>
+  </si>
+  <si>
+    <t>ノンアルビール</t>
+  </si>
+  <si>
+    <t>炭酸水</t>
+  </si>
+  <si>
+    <t>HOT 天然水</t>
+  </si>
+  <si>
+    <t>焼き物</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/NonAlcohol.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Alcohol.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Salada.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Fried.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Sashimi.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Grilled.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Menu/Food.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +392,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -517,21 +746,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FDCB86-6388-BF46-8632-05EF8611BC8C}">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.48046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -541,459 +771,1560 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1280</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>780</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="C4">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>580</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>580</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="C6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7">
         <v>480</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9">
+        <v>580</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>580</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>480</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>480</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>380</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>480</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>780</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>780</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>480</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>480</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>580</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>580</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>480</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>880</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>880</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>580</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>780</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>380</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>480</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>680</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>380</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>580</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>780</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>680</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>480</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>580</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>380</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>380</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>580</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>680</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>480</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
       </c>
       <c r="C8">
         <v>580</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>480</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>480</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C17">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C18">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C19">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C22">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C26">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C27">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>380</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C29">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>380</v>
+        <v>380</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>280</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>380</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>380</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>380</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>380</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>380</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <v>380</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>380</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>